--- a/APM files/139675497/139675497 IMPORT 2 VID creation.xlsx
+++ b/APM files/139675497/139675497 IMPORT 2 VID creation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/139675497/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\139675497\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E57199-D173-E34D-A03F-2CEAED328D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C434F33-B307-4839-9DC7-E9D39FAAAE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="27040" xr2:uid="{9D4D5596-5114-4242-A7CC-17D7C82386FC}"/>
+    <workbookView xWindow="8040" yWindow="1830" windowWidth="28800" windowHeight="15345" xr2:uid="{9D4D5596-5114-4242-A7CC-17D7C82386FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2808,36 +2808,36 @@
   <dimension ref="A1:U251"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E202" sqref="E202"/>
+      <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C232" sqref="C232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="28" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>549</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>550</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>551</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>552</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>553</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>554</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>555</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>556</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>557</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>558</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>559</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>560</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>561</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>562</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>563</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>564</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>565</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>566</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>567</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>568</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>569</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>570</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>571</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>572</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>573</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>574</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>575</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>576</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>577</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>578</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>579</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>580</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>581</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>582</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>583</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>584</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>585</v>
       </c>
@@ -4530,7 +4530,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>586</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>587</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>588</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>589</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>590</v>
       </c>
@@ -4750,7 +4750,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>591</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>592</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>593</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>594</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>595</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>596</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>597</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>598</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>599</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>600</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>601</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>602</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>603</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>604</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>605</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>606</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>607</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>608</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>609</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>610</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>611</v>
       </c>
@@ -5674,7 +5674,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>612</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>613</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>614</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>615</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>616</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>617</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>618</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>619</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>620</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>621</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>622</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>623</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>624</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>625</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>626</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>627</v>
       </c>
@@ -6378,7 +6378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>628</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>629</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>630</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>631</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>632</v>
       </c>
@@ -6598,7 +6598,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>633</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>634</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>635</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>636</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>637</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>638</v>
       </c>
@@ -6862,7 +6862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>639</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>640</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>641</v>
       </c>
@@ -6994,7 +6994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>642</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>643</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>644</v>
       </c>
@@ -7126,7 +7126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>645</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>646</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>647</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>648</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>649</v>
       </c>
@@ -7346,7 +7346,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>650</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>651</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>652</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>653</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>654</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>655</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>656</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>657</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>658</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>659</v>
       </c>
@@ -7786,7 +7786,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>660</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>661</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>662</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>663</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>664</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>665</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>666</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>667</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>668</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>669</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>670</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>671</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>672</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>673</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>674</v>
       </c>
@@ -8446,7 +8446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>675</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>676</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>677</v>
       </c>
@@ -8578,7 +8578,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>678</v>
       </c>
@@ -8622,7 +8622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>679</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>680</v>
       </c>
@@ -8710,7 +8710,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>681</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>682</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>683</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>684</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>685</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>686</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>687</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>688</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>689</v>
       </c>
@@ -9106,7 +9106,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>690</v>
       </c>
@@ -9150,7 +9150,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>691</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>692</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>693</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>694</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>695</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>696</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>697</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>698</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>699</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>700</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>701</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>702</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>703</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>704</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>705</v>
       </c>
@@ -9810,7 +9810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>706</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>707</v>
       </c>
@@ -9898,7 +9898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>708</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>709</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>710</v>
       </c>
@@ -10030,7 +10030,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>711</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>712</v>
       </c>
@@ -10118,7 +10118,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>713</v>
       </c>
@@ -10162,7 +10162,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>714</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>715</v>
       </c>
@@ -10250,7 +10250,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>716</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>717</v>
       </c>
@@ -10338,7 +10338,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>718</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>719</v>
       </c>
@@ -10426,7 +10426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>720</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>721</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>722</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>723</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>724</v>
       </c>
@@ -10646,7 +10646,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>725</v>
       </c>
@@ -10690,7 +10690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>726</v>
       </c>
@@ -10734,7 +10734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>727</v>
       </c>
@@ -10778,7 +10778,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>728</v>
       </c>
@@ -10822,7 +10822,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>729</v>
       </c>
@@ -10866,7 +10866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>730</v>
       </c>
@@ -10910,7 +10910,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>731</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>732</v>
       </c>
@@ -10998,7 +10998,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>733</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>734</v>
       </c>
@@ -11086,7 +11086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>735</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>736</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>737</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>738</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>739</v>
       </c>
@@ -11306,7 +11306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>740</v>
       </c>
@@ -11350,7 +11350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>741</v>
       </c>
@@ -11394,7 +11394,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>742</v>
       </c>
@@ -11438,7 +11438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>743</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>744</v>
       </c>
@@ -11526,7 +11526,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>745</v>
       </c>
@@ -11570,7 +11570,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>746</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>747</v>
       </c>
@@ -11658,7 +11658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>748</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>749</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>750</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>751</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>752</v>
       </c>
@@ -11878,7 +11878,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>753</v>
       </c>
@@ -11922,7 +11922,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>754</v>
       </c>
@@ -11966,7 +11966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>755</v>
       </c>
@@ -12010,7 +12010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>756</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>757</v>
       </c>
@@ -12098,7 +12098,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>758</v>
       </c>
@@ -12142,7 +12142,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>759</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>760</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>761</v>
       </c>
@@ -12274,7 +12274,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>762</v>
       </c>
@@ -12318,7 +12318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>763</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>764</v>
       </c>
@@ -12406,7 +12406,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>765</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>766</v>
       </c>
@@ -12494,7 +12494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>767</v>
       </c>
@@ -12538,7 +12538,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>768</v>
       </c>
@@ -12582,7 +12582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>769</v>
       </c>
@@ -12626,7 +12626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>770</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>771</v>
       </c>
@@ -12714,7 +12714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>772</v>
       </c>
@@ -12758,7 +12758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>773</v>
       </c>
@@ -12802,7 +12802,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>774</v>
       </c>
@@ -12846,7 +12846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>775</v>
       </c>
@@ -12890,7 +12890,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>776</v>
       </c>
@@ -12934,7 +12934,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>777</v>
       </c>
@@ -12978,7 +12978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>778</v>
       </c>
@@ -13022,7 +13022,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>779</v>
       </c>
@@ -13066,7 +13066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>780</v>
       </c>
@@ -13110,7 +13110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>781</v>
       </c>
@@ -13154,7 +13154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>782</v>
       </c>
@@ -13198,7 +13198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>783</v>
       </c>
@@ -13242,7 +13242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>784</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>785</v>
       </c>
@@ -13330,7 +13330,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>786</v>
       </c>
@@ -13374,7 +13374,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>787</v>
       </c>
@@ -13418,7 +13418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>788</v>
       </c>
@@ -13462,7 +13462,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>789</v>
       </c>
@@ -13506,7 +13506,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>790</v>
       </c>
@@ -13550,7 +13550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>791</v>
       </c>
@@ -13594,7 +13594,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>792</v>
       </c>
@@ -13638,7 +13638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>793</v>
       </c>
@@ -13682,7 +13682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>794</v>
       </c>
@@ -13726,7 +13726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>795</v>
       </c>
@@ -13770,7 +13770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>796</v>
       </c>
@@ -13814,7 +13814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>797</v>
       </c>
@@ -13858,7 +13858,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>798</v>
       </c>
